--- a/词汇/数据库导入/010.-press-压，按.xlsx
+++ b/词汇/数据库导入/010.-press-压，按.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337">
   <si>
     <t>Word</t>
   </si>
@@ -31,6 +31,5445 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>press [pres]</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压；按；逼迫；紧抱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压；逼；重压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压；按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印刷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印刷机【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1179</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1534</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X8M2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【press词根直接表单词】</t>
+  </si>
+  <si>
+    <t>presser ['presə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压榨机；压制工【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40346</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【er名词后缀，表人】</t>
+  </si>
+  <si>
+    <t>pressed [prɛst]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加压的；紧迫的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20411</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ed形容词后缀】</t>
+  </si>
+  <si>
+    <t>pressman ['presmən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记者；新闻从业员；印刷工人【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>39620</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词】</t>
+  </si>
+  <si>
+    <t>cold-pressed [kəʊld-prɛst]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冷压的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35281</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>hot-pressed [hɒt-prɛst]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热压【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50870</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>hard-pressed ['hɑ:dprest]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被紧紧催逼的；被紧迫追赶的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15840</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>pressure ['preʃə]</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压力；压迫，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>迫使；密封；使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增压【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>765</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7223</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【press-压力ure名词后缀】</t>
+  </si>
+  <si>
+    <t>high-pressure [,haɪ'preʃə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高压的；高气压的；强行的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>施加压力；强制【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18379</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40877</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>low-pressure ['ləu'preʃə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>低压的；悠然自得的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>27874</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>blood-pressure [blʌd-'preʃə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>血压【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>pressure-treated ['preʃə-tri:tid]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经加压处理的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32974</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>overpressure ['əuvə,preʃə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超压；过度的重压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压力上升【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50052</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>acupressure ['ækjuprɛʃɚ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针压法【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40887</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【词根-ac-尖-+u+-针刺+pressure压】</t>
+  </si>
+  <si>
+    <t>pressured ['preʃəd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紧迫的；感受压力的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25702</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【pressure+ed形容词后缀】</t>
+  </si>
+  <si>
+    <t>pressurize ['preʃəraɪz]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密封；增压；使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加压，使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压入【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25079</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【pressure+ize动词后缀】</t>
+  </si>
+  <si>
+    <t>pressurized ['prɛʃəraɪzd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加压的；受压的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【pressurize+ed形容词后缀】</t>
+  </si>
+  <si>
+    <t>pressurization [ˌpreʃərɪˈzeɪʃn;]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增压；气密；压力输送【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>43605</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【pressureize+ation复合名词后缀】</t>
+  </si>
+  <si>
+    <t>pressure-sensitive ['preʃə-'sensɪtɪv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压敏，对压力敏感的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>47580</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>bench-press [bentʃ-pres]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>举重练习凳；台式压床【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>46850</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>pressing ['presɪŋ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压；冲压件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紧迫的；迫切的；恳切的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7270</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【press+ing动名词或形容词后缀】</t>
+  </si>
+  <si>
+    <t>letterpress ['letəpres]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>凸版印刷；正文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>凸版印刷的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>凸版印刷地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>44946</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词letter字母+press】</t>
+  </si>
+  <si>
+    <t>pressroom ['presrʊm]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记者室；印刷间【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>48797</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>time-pressed [taɪm-prɛst]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间紧迫【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>48912</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>pressure-cooker ['preʃə-'kʊkə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加压蒸煮器；压力锅；高压锅【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50985</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词cook+-er名词后缀，表物--厨具】</t>
+  </si>
+  <si>
+    <t>pressure-packed ['preʃə-pækt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>充满压力的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>52415</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>impress [ɪm'pres]</t>
+  </si>
+  <si>
+    <t>impress</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盖印；强征；传送；给予某人深刻印象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给人印象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印象，印记；特征，痕迹【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3074</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【im-进入，使+press压，按--即压进去的，引申词义使留下印象】</t>
+  </si>
+  <si>
+    <t>impressed [ɪm'prest]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钦佩的，印象深刻的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3279</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16553</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X9M1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ed形容词后缀，表...的，修饰人】</t>
+  </si>
+  <si>
+    <t>impressive [ɪm'presɪv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给人印象深刻的【词频】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B4M2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X10M5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【impress+ive形容词后缀】</t>
+  </si>
+  <si>
+    <t>impression [ɪm'preʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印象【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2553</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B1M2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【impress+ion名词后缀】</t>
+  </si>
+  <si>
+    <t>impressional [ɪm'prɛʃənl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印象的；易受影响的</t>
+    </r>
+  </si>
+  <si>
+    <t>【impression+al形容词后缀】</t>
+  </si>
+  <si>
+    <t>impressionism [ɪm'preʃənɪzəm]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印象派，印象主义【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22693</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【impression+ism名词后缀，表...主义】</t>
+  </si>
+  <si>
+    <t>post-impressionist ['postɪm'prɛʃənɪst]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后期印象派的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后期印象派的画家【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>49677</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【post后+impression+ist==est形容词或名词后缀，表人】</t>
+  </si>
+  <si>
+    <t>impressionistic [ɪm,preʃə'nɪstɪk]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印象派的；印象主义的；给人深刻印象的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23371</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【impression+ist+ic形容词后缀】</t>
+  </si>
+  <si>
+    <t>impressionable [ɪm'preʃ(ə)nəb(ə)l]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敏感的；易受影响的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21588</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【impression+able形容词后缀，表能...的】</t>
+  </si>
+  <si>
+    <t>unimpressed [ʌnɪm'prest]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无印记的（没有印象的）；未受感动的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19144</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【un否定+impressed】</t>
+  </si>
+  <si>
+    <t>impressionist [ɪm'preʃənɪst]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>印象主义者；印象派作家【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17618</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>34622</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【impression+ist名词后缀】</t>
+  </si>
+  <si>
+    <t>impressively [im'presivli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>令人难忘地；感人地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19341</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【impressive+ly副词后缀】</t>
+  </si>
+  <si>
+    <t>unimpressive ['ʌnɪm'prɛsɪv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无印象的；给人印象不深的；不惹人注意的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>27043</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【un否定+impressive】</t>
+  </si>
+  <si>
+    <t>misimpression [,misim'preʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>错误的印象【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>44764</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【mis-错误+impression】</t>
+  </si>
+  <si>
+    <t>impressive-looking [ɪm'presɪv-'lʊkɪŋ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>令人印象深刻的；富丽堂皇的；相貌端正的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>56401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词look+ing形容词或动名词后缀
+Looking adj.有...样子的，有...相貌的】</t>
+  </si>
+  <si>
+    <t>impressment [ɪm'presmənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>强行征用；征召；强制征兵【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>59956</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【im使动+press压--压迫--迫使+ment名词后缀】</t>
+  </si>
+  <si>
+    <t>express [ɪk'spres]</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表达；快递</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明确的；迅速的；专门的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快车，快递，专使；捷运公司【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1276</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12386</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ex-向外+press压，推，即推出，表达】</t>
+  </si>
+  <si>
+    <t>expressive [ɪk'spresɪv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表现的；有表现力的；表达</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8140</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【express+ive形容词后缀】</t>
+  </si>
+  <si>
+    <t>expression [ɪkˈspreʃn]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表现；表达【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1538</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B2M4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【express+ion名词后缀】</t>
+  </si>
+  <si>
+    <t>expressionism [ɪk'spreʃ(ə)nɪz(ə)m]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表现主义【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21972</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【expression+ism名词后缀】</t>
+  </si>
+  <si>
+    <t>expressionist [ɪk'sprɛʃənɪst]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表现派作家；表现主义艺术家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表现主义的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>27236</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>54278</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【expression+ist名词后缀，表人】</t>
+  </si>
+  <si>
+    <t>self-expression ['selfiks'preʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自我表现【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18646</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>self-expressive ['selfɪk'spresɪv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自我表现的；自我表达的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>52544</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词ive形容词后缀】</t>
+  </si>
+  <si>
+    <t>inexpressive [ɪnɪk'spresɪv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无表情的；无意义的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>47824</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【in否定+expressive】</t>
+  </si>
+  <si>
+    <t>expressivity [,ekspre'sɪvətɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表达性；善于表达；基因的表现度【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>47816</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【expressive+ity名词后缀】</t>
+  </si>
+  <si>
+    <t>expressively [ɪk'sprɛsɪvli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表现地；意味深长地；表示地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32497</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【expressive+ly副词后缀】</t>
+  </si>
+  <si>
+    <t>expressible [ɪk'sprɛsəbl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可表现的；可榨出的</t>
+    </r>
+  </si>
+  <si>
+    <t>【express+ible形容词后缀，表能...的】</t>
+  </si>
+  <si>
+    <t>expressly [ɪk'spreslɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>清楚地，明显地；特别地，专门地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14117</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【express+ly副词后缀】</t>
+  </si>
+  <si>
+    <t>expressed [ɪk'spresɪd]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> v. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表达</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(express</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的过去式和过去分词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14417</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【express+ed动词变形】</t>
+  </si>
+  <si>
+    <t>expressionless [ɪk'spreʃ(ə)nlɪs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无表情的；呆板的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18981</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【expression+less形容词后缀，表否定】</t>
+  </si>
+  <si>
+    <t>expressionlessly [ɪk'spreʃ(ə)nlɪs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无表情地；呆板地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>48956</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ly副词后缀】</t>
+  </si>
+  <si>
+    <t>expressway [ɪk'spresweɪ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（美）高速公路【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20803</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【合成词freeway(英)】</t>
+  </si>
+  <si>
+    <t>expressiveness [ɪk'sprɛsɪvnɪs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>善于表现；表情丰富【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>26775</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ness名词后缀】</t>
+  </si>
+  <si>
+    <t>inexpressible [ɪnɪk'spresɪb(ə)l]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不可言传的；难以形容的；不能用语言表达的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>34868</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【in-否定+express+ible形容词后缀】</t>
+  </si>
+  <si>
+    <t>inexpressibly [ɪnɪk'sprɛsəbli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到不能用语言表达的程度【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>44090</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【inexpressible+ly副词后缀】</t>
+  </si>
+  <si>
+    <t>unexpressed [ʌnɪk'sprest]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未表达的；不明说的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35692</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【un否定+express+ed形容词后缀】</t>
+  </si>
+  <si>
+    <t>expressionistic [ɪk,sprɛʃən'ɪstɪk]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表现主义的；表现派的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>38312</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【expression+ist+ic形容词后缀】</t>
+  </si>
+  <si>
+    <t>overexpression ['əʊvəɪkˈspreʃn]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超表达【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>54456</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【over-超过+expression】</t>
+  </si>
+  <si>
+    <t>depress [dɪ'pres]</t>
+  </si>
+  <si>
+    <t>depress</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使沮丧，使意志消沉，使心灰意冷【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2107</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11724</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X6M4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【de-向下，-press-压--压制--压抑。即压制。引申词义抑郁，沮丧】</t>
+  </si>
+  <si>
+    <t>depressive [dɪ'presɪv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抑郁的；压抑的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11693</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【depress+ive形容词后缀】</t>
+  </si>
+  <si>
+    <t>depressing [dɪ'presɪŋ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>令人沮丧的；令人抑郁的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9286</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X8M1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【depress+ing形容词后缀，表令...的】</t>
+  </si>
+  <si>
+    <t>depressingly [dɪ'prɛsɪŋli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郁闷地；抑压地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【depressing+ly副词后缀】</t>
+  </si>
+  <si>
+    <t>depressed [dɪ'prest]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沮丧的；萧条的；压低的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4540</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【depress+ed形容词后缀】</t>
+  </si>
+  <si>
+    <t>depressor [dɪ'presə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抑压者；抑压物【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【depress+or名词后缀，表物】</t>
+  </si>
+  <si>
+    <t>depressurize [diː'preʃəraɪz]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使减压【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>46212</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【错误解析：depress+ure+ize动词后缀
+正确解析：de-下，分+pressure压力--分离压力--使减压+ize动词后缀】</t>
+  </si>
+  <si>
+    <t>manic-depressive [,mænikdi'presiv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>躁狂抑郁病患者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>躁郁病的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32919</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40505</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>depressant [dɪ'pres(ə)nt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>镇静剂，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>医</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>矿业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抑制剂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有镇静作用的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>41735</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【depress+ant名词后缀，表物，表形容词后缀】</t>
+  </si>
+  <si>
+    <t>antidepressant [,æntɪdɪ'pres(ə)nt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抗抑郁剂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抗抑郁的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12585</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25127</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【anti反--反抗+depressant】</t>
+  </si>
+  <si>
+    <t>depression-era [dɪ'preʃ(ə)n-'ɪərə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经济大萧条时期【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25936</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>compress [kəm'pres]</t>
+  </si>
+  <si>
+    <t>compress</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩，压紧【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9721</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>29700</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【com在一起+-press-压--压在一起--压缩】</t>
+  </si>
+  <si>
+    <t>compression [kəm'preʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩，浓缩【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8519</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【compress+ion名词后缀】</t>
+  </si>
+  <si>
+    <t>compressive [kəm'presɪv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩的；有压缩力的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31341</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【compress+ive形容词后缀】</t>
+  </si>
+  <si>
+    <t>compressor [kəm'presə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩机；压缩物【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15329</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【compress+or名词后缀，表物】</t>
+  </si>
+  <si>
+    <t>compressible [kəm'prɛsəbl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可压缩的；可压榨的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>37609</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【compress+ible形容词后缀，表能...的】</t>
+  </si>
+  <si>
+    <t>incompressible [ɪnkəm'presɪb(ə)l]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不能压缩的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>46340</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【in否定+compressible】</t>
+  </si>
+  <si>
+    <t>compressibility [kəm,prɛsə'bɪləti]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩性；压缩系数；压缩率【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40233</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【compress+ible+ity==ibility复合名词后缀】</t>
+  </si>
+  <si>
+    <t>compressed [kəm'prest]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被压缩的；扁平的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13117</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【compress+ed形容词后缀】</t>
+  </si>
+  <si>
+    <t>compressed-air [kəm'prest'εə]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空气压缩的；风动的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>53525</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>uncompressed [ʌnkəm'prest]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未压缩的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>43359</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【un否定+compressed】</t>
+  </si>
+  <si>
+    <t>decompress [,diːkəm'pres]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使减压，使解除压力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">vi. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减压【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28096</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【de-分+compress压缩--压力】</t>
+  </si>
+  <si>
+    <t>decompression [diːkəm'preʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t>n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特医</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解压；降压【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24169</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【decompress+ion名词后缀】</t>
+  </si>
+  <si>
+    <t>oppress [ə'pres]</t>
+  </si>
+  <si>
+    <t>oppress</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压迫，压抑；使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>烦恼【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13433</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【op-强调，反+press-压--压迫】</t>
+  </si>
+  <si>
+    <t>oppressed [ə'prest]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受压制的，受压迫的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12440</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【oppress+ed形容词后缀】</t>
+  </si>
+  <si>
+    <t>oppression [ə'preʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压抑；镇压；压迫手段【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6936</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【oppress+ion名词后缀】</t>
+  </si>
+  <si>
+    <t>oppressive [ə'presɪv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压迫的；沉重的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9877</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【oppress+ive形容词后缀】</t>
+  </si>
+  <si>
+    <t>oppressiveness [ə'presɪvnɪs]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压迫【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>49584</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【oppressive+ness名词后缀】</t>
+  </si>
+  <si>
+    <t>oppressively [ə'prɛsɪvli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压迫地；沉重地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>37507</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【oppressive+ly副词后缀】</t>
+  </si>
+  <si>
+    <t>oppressor [ə'presə(r)]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压制者，压迫者【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18847</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【oppress+or名词后缀，表人】</t>
+  </si>
+  <si>
+    <t>repress [rɪ'pres]</t>
+  </si>
+  <si>
+    <t>repress</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抑制；镇压【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13445</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【re-反--往回+press压--往回压--镇压】</t>
+  </si>
+  <si>
+    <t>repressed [rɪ'prest]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被压抑的；被抑制的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13846</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【repress+ed形容词后缀】</t>
+  </si>
+  <si>
+    <t>long-repressed [lɒŋ-rɪ'prest]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长期被压抑的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>54095</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>repression [rɪ'preʃən]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抑制，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>心理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压抑【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7817</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【repress+ion名词后缀】</t>
+  </si>
+  <si>
+    <t>repressive [rɪ'presɪv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>镇压的；压抑的；抑制的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11726</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【repress+ive形容词后缀】</t>
+  </si>
+  <si>
+    <t>irrepressible [ɪrɪ'presɪb(ə)l]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抑制不住的；压服不了的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>21641</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ir-否定+repressible形容词后缀，表能...的】</t>
+  </si>
+  <si>
+    <t>irrepressibly [ɪrɪ'prɛsəbli]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adv. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>镇压不住地；无法抑制地【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>42584</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【irrepressible+ly副词后缀】</t>
+  </si>
+  <si>
+    <t>suppress [sə'pres]</t>
+  </si>
+  <si>
+    <t>suppress</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> vt. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抑制；镇压；废止【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【sup-下+press压--抑制】</t>
+  </si>
+  <si>
+    <t>suppression [sə'preʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抑制；镇压；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>植</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压抑【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10385</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【suppress+ion名词后缀】</t>
+  </si>
+  <si>
+    <t>suppressor [sə'prɛsɚ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抑制器；消除器【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30955</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【suppress+or名词后缀，表物】</t>
+  </si>
+  <si>
+    <t>suppressive [sə'presiv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抑制的；镇压的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>39284</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【suppress+ive形容词后缀】</t>
+  </si>
+  <si>
+    <t>suppressible [sə'prɛsəbl]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可隐藏的；可以压制的</t>
+    </r>
+  </si>
+  <si>
+    <t>【suppress+ible形容词后缀】</t>
+  </si>
+  <si>
+    <t>suppressed [sə'prest]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抑制的，发育不全的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22631</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【suppress+ed形容词后缀】</t>
+  </si>
+  <si>
+    <t>long-suppressed [lɒŋ-sə'prest]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长期抑制的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>48001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>suppressant [sə'pres(ə)nt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制止的；抑制性的；遏抑的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抑制药【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30669</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【suppress+ant形容词或名词后缀=depressant】</t>
+  </si>
+  <si>
+    <t>espresso [e'spresəʊ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（用汽加压煮出的）浓咖啡【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【es-强调+press压--加压+-o名词后缀】</t>
+  </si>
+  <si>
+    <t>vasopressin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> [,veɪzəʊ'presɪn] n. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加压素；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抗利尿激素；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后叶加压素【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>36749</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-vaso-激素,抗击+press+in名词后缀】</t>
+  </si>
+  <si>
+    <t>immunosuppressive [,ɪmjʊnəʊsə'presɪv]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">adj. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>免抑制疫力的；抑制免疫力的【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>37240</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【-immun-免疫，抵抗，抗体+suppresive】</t>
+  </si>
+  <si>
+    <t>immunosuppression [,ɪmjʊnəʊsə'preʃ(ə)n]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>免疫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>免疫抑制【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40796</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ion名词后缀】</t>
+  </si>
+  <si>
+    <t>immunosuppressant [,ɪmjʊnəʊsə'presənt]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> n. [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>免疫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>][</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>药</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>免疫抑制剂（素）【词频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50434</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>52735</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>【ant名词后缀】</t>
   </si>
 </sst>
 </file>
@@ -39,11 +5478,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,10 +5491,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -66,8 +5548,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,13 +5565,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -97,15 +5573,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,25 +5602,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,7 +5611,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,15 +5626,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,19 +5647,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -212,13 +5662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,25 +5674,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +5740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +5758,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,55 +5824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,49 +5836,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,26 +5871,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,16 +5931,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,160 +5973,181 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1026,15 +6497,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="37" customWidth="1"/>
+    <col min="1" max="1" width="35.125" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1053,6 +6528,1943 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" ht="26.25" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" ht="25.5" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="1:5">
+      <c r="A42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" ht="40.5" spans="1:5">
+      <c r="A44" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" ht="27" spans="1:5">
+      <c r="A61" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" spans="1:5">
+      <c r="A66" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" ht="27" spans="1:5">
+      <c r="A68" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" ht="40.5" spans="1:5">
+      <c r="A72" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E101" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="112" ht="27" spans="1:5">
+      <c r="A112" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="115" ht="27" spans="1:5">
+      <c r="A115" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
